--- a/data/trans_dic/P29A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Provincia-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>97,0; 100,0</t>
+          <t>97,02; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,37; 88,85</t>
+          <t>77,82; 89,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,89; 100,0</t>
+          <t>92,19; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56,77; 71,35</t>
+          <t>57,14; 70,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,48; 99,65</t>
+          <t>96,73; 99,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,22; 80,26</t>
+          <t>71,42; 80,57</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,12; 100,0</t>
+          <t>97,13; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,32; 87,76</t>
+          <t>75,86; 87,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,51; 98,97</t>
+          <t>90,21; 98,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64,06; 77,84</t>
+          <t>64,36; 78,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,54; 99,41</t>
+          <t>96,56; 99,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,59; 82,62</t>
+          <t>73,72; 82,47</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,47; 100,0</t>
+          <t>96,96; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>93,13; 98,23</t>
+          <t>92,81; 98,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,35; 100,0</t>
+          <t>94,64; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,65; 87,81</t>
+          <t>74,99; 87,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,41; 99,7</t>
+          <t>97,47; 99,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,76; 93,68</t>
+          <t>87,8; 93,59</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,23; 97,32</t>
+          <t>91,89; 97,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,43; 94,94</t>
+          <t>83,74; 94,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,53; 97,66</t>
+          <t>88,95; 97,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,06; 89,71</t>
+          <t>59,71; 89,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,29; 97,01</t>
+          <t>92,17; 96,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,13; 90,78</t>
+          <t>74,12; 90,91</t>
         </is>
       </c>
     </row>
@@ -959,12 +959,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>93,05; 100,0</t>
+          <t>90,94; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,11; 96,0</t>
+          <t>77,23; 95,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,17 +974,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,01; 82,05</t>
+          <t>37,6; 81,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,58; 100,0</t>
+          <t>92,47; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,38; 88,44</t>
+          <t>69,23; 88,81</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>96,81; 100,0</t>
+          <t>96,48; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,2; 97,23</t>
+          <t>88,5; 96,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,86; 100,0</t>
+          <t>94,15; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,06; 96,22</t>
+          <t>85,79; 96,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,68; 99,64</t>
+          <t>96,71; 99,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>89,9; 95,84</t>
+          <t>90,15; 96,09</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,54; 100,0</t>
+          <t>98,37; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>80,64; 89,27</t>
+          <t>80,35; 89,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>95,36; 98,93</t>
+          <t>95,12; 99,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>71,03; 91,34</t>
+          <t>70,64; 92,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,82; 99,54</t>
+          <t>97,77; 99,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,2; 89,31</t>
+          <t>78,4; 89,59</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>97,38; 99,53</t>
+          <t>97,35; 99,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>45,81; 72,1</t>
+          <t>46,42; 72,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>94,01; 98,72</t>
+          <t>93,61; 98,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,97; 48,12</t>
+          <t>36,53; 47,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>96,84; 99,08</t>
+          <t>96,94; 98,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>42,04; 60,56</t>
+          <t>43,8; 60,9</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>98,12; 99,19</t>
+          <t>98,1; 99,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>73,73; 84,4</t>
+          <t>72,87; 84,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>95,93; 98,11</t>
+          <t>96,09; 98,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>67,13; 77,35</t>
+          <t>66,99; 77,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>97,62; 98,55</t>
+          <t>97,56; 98,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>73,05; 79,52</t>
+          <t>72,78; 79,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P29A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Provincia-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>97,02; 100,0</t>
+          <t>97,04; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,19; 100,0</t>
+          <t>93,02; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,73; 99,65</t>
+          <t>96,58; 99,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,21; 98,93</t>
+          <t>90,56; 98,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,56; 99,42</t>
+          <t>96,29; 99,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>96,96; 100,0</t>
+          <t>97,43; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,64; 100,0</t>
+          <t>94,1; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,47; 99,7</t>
+          <t>97,54; 99,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,89; 97,47</t>
+          <t>91,78; 97,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,95; 97,59</t>
+          <t>88,53; 97,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,17; 96,79</t>
+          <t>91,78; 96,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>90,94; 100,0</t>
+          <t>91,05; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,47; 100,0</t>
+          <t>93,94; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>96,48; 100,0</t>
+          <t>96,36; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94,15; 100,0</t>
+          <t>94,2; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,71; 99,67</t>
+          <t>96,86; 99,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,37; 100,0</t>
+          <t>98,52; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>95,12; 99,22</t>
+          <t>95,4; 99,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,77; 99,53</t>
+          <t>97,84; 99,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>97,35; 99,54</t>
+          <t>97,57; 99,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>93,61; 98,73</t>
+          <t>94,1; 98,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>96,94; 98,95</t>
+          <t>96,81; 98,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,16</t>
+          <t>98,13; 99,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>96,09; 98,02</t>
+          <t>96,13; 98,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>97,56; 98,61</t>
+          <t>97,58; 98,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">

--- a/data/trans_dic/P29A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>97,04; 100,0</t>
+          <t>97,0; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,82; 89,42</t>
+          <t>77,37; 88,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,02; 100,0</t>
+          <t>92,89; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57,14; 70,42</t>
+          <t>56,77; 71,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,58; 99,64</t>
+          <t>96,48; 99,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,42; 80,57</t>
+          <t>71,22; 80,26</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,13; 100,0</t>
+          <t>97,12; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,86; 87,54</t>
+          <t>76,32; 87,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,56; 98,97</t>
+          <t>90,51; 98,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64,36; 78,02</t>
+          <t>64,06; 77,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,29; 99,33</t>
+          <t>96,54; 99,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,72; 82,47</t>
+          <t>73,59; 82,62</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,43; 100,0</t>
+          <t>97,47; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,81; 98,16</t>
+          <t>93,13; 98,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,1; 100,0</t>
+          <t>94,35; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74,99; 87,49</t>
+          <t>75,65; 87,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,54; 99,7</t>
+          <t>97,41; 99,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,8; 93,59</t>
+          <t>87,76; 93,68</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,78; 97,4</t>
+          <t>91,23; 97,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,74; 94,95</t>
+          <t>83,43; 94,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,53; 97,86</t>
+          <t>89,53; 97,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,71; 89,95</t>
+          <t>55,06; 89,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,78; 96,88</t>
+          <t>92,29; 97,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,12; 90,91</t>
+          <t>74,13; 90,78</t>
         </is>
       </c>
     </row>
@@ -959,12 +959,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,05; 100,0</t>
+          <t>93,05; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,23; 95,98</t>
+          <t>79,11; 96,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,17 +974,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,6; 81,76</t>
+          <t>38,01; 82,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,94; 100,0</t>
+          <t>93,58; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>69,23; 88,81</t>
+          <t>68,38; 88,44</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>96,36; 100,0</t>
+          <t>96,81; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,5; 96,95</t>
+          <t>89,2; 97,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94,2; 100,0</t>
+          <t>92,86; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>85,79; 96,43</t>
+          <t>86,06; 96,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,86; 99,64</t>
+          <t>96,68; 99,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>90,15; 96,09</t>
+          <t>89,9; 95,84</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,52; 100,0</t>
+          <t>98,54; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>80,35; 89,14</t>
+          <t>80,64; 89,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>95,4; 99,21</t>
+          <t>95,36; 98,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>70,64; 92,82</t>
+          <t>71,03; 91,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,84; 99,54</t>
+          <t>97,82; 99,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,4; 89,59</t>
+          <t>78,2; 89,31</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>97,57; 99,75</t>
+          <t>97,38; 99,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>46,42; 72,24</t>
+          <t>45,81; 72,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>94,1; 98,76</t>
+          <t>94,01; 98,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,53; 47,94</t>
+          <t>36,97; 48,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>96,81; 98,96</t>
+          <t>96,84; 99,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>43,8; 60,9</t>
+          <t>42,04; 60,56</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,21</t>
+          <t>98,12; 99,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>72,87; 84,46</t>
+          <t>73,73; 84,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>96,13; 98,1</t>
+          <t>95,93; 98,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>66,99; 77,64</t>
+          <t>67,13; 77,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>97,58; 98,61</t>
+          <t>97,62; 98,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>72,78; 79,5</t>
+          <t>73,05; 79,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P29A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Provincia-trans_dic.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>64,22%</t>
+          <t>62,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
+          <t>75,43%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,37; 88,85</t>
+          <t>76,15; 88,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56,77; 71,35</t>
+          <t>53,61; 70,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,22; 80,26</t>
+          <t>69,96; 80,3</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82,47%</t>
+          <t>82,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,72%</t>
+          <t>71,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>78,57%</t>
+          <t>78,75%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,32; 87,76</t>
+          <t>75,8; 87,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64,06; 77,84</t>
+          <t>64,17; 77,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,59; 82,62</t>
+          <t>73,67; 82,94</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82,3%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>91,16%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>93,13; 98,23</t>
+          <t>93,14; 98,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,65; 87,81</t>
+          <t>75,54; 87,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,76; 93,68</t>
+          <t>87,95; 93,78</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80,23%</t>
+          <t>59,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,81%</t>
+          <t>74,22%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,43; 94,94</t>
+          <t>82,78; 94,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,06; 89,71</t>
+          <t>23,1; 89,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,13; 90,78</t>
+          <t>43,91; 90,53</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>88,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>60,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>80,84%</t>
+          <t>80,62%</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,11; 96,0</t>
+          <t>79,06; 96,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,01; 82,05</t>
+          <t>37,09; 80,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,38; 88,44</t>
+          <t>68,15; 88,22</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>92,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>93,7%</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,2; 97,23</t>
+          <t>89,32; 97,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,06; 96,22</t>
+          <t>86,19; 96,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>89,9; 95,84</t>
+          <t>89,98; 95,91</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>85,26%</t>
+          <t>85,31%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>80,27%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>82,63%</t>
+          <t>84,79%</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>80,64; 89,27</t>
+          <t>80,4; 89,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>71,03; 91,34</t>
+          <t>70,81; 94,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,2; 89,31</t>
+          <t>78,57; 92,66</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>63,36%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>41,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>55,71%</t>
+          <t>42,99%</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>45,81; 72,1</t>
+          <t>17,0; 71,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,97; 48,12</t>
+          <t>36,5; 47,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>42,04; 60,56</t>
+          <t>17,59; 60,32</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>74,43%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>70,76%</t>
+          <t>70,4%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>77,06%</t>
+          <t>72,79%</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>73,73; 84,4</t>
+          <t>50,42; 84,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>67,13; 77,35</t>
+          <t>61,7; 81,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>73,05; 79,52</t>
+          <t>56,85; 79,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P29A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +524,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +545,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,11 +637,17 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>51,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>56,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>59,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>62,8%</t>
+          <t>57,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>75,43%</t>
+          <t>34,05%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34,93%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31,31%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39,83%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45,44%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>47,47%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>45,01%</t>
         </is>
       </c>
     </row>
@@ -639,39 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>97,0; 100,0</t>
+          <t>44,74; 57,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,15; 88,74</t>
+          <t>50,42; 62,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,89; 100,0</t>
+          <t>53,76; 66,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,61; 70,23</t>
+          <t>49,93; 64,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,48; 99,65</t>
+          <t>23,26; 34,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>69,96; 80,3</t>
+          <t>28,19; 40,39</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>29,32; 40,5</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26,96; 36,02</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36,13; 44,53</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>41,09; 49,81</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43,69; 52,02</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>40,7; 49,12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>42,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>57,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>51,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,78%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>78,75%</t>
+          <t>23,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17,94%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>40,14%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34,38%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>36,16%</t>
         </is>
       </c>
     </row>
@@ -719,39 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,12; 100,0</t>
+          <t>37,82; 47,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,8; 87,83</t>
+          <t>52,58; 62,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,51; 98,97</t>
+          <t>47,5; 56,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64,17; 77,91</t>
+          <t>43,69; 55,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,54; 99,41</t>
+          <t>8,91; 14,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,67; 82,94</t>
+          <t>20,22; 27,77</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14,69; 21,46</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19,23; 26,11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 30,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>37,02; 43,83</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31,53; 37,69</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32,4; 39,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>59,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>57,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>62,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>58,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>32,56%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34,7%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>25,76%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>41,62%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>44,51%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>47,6%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>41,37%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,47; 100,0</t>
+          <t>54,04; 64,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>93,14; 98,22</t>
+          <t>51,86; 63,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,35; 100,0</t>
+          <t>56,33; 66,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,54; 87,79</t>
+          <t>52,99; 64,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,41; 99,7</t>
+          <t>20,64; 30,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,95; 93,78</t>
+          <t>27,51; 38,01</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>29,72; 39,62</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>21,67; 29,9</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>37,69; 45,83</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>40,79; 48,76</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>43,4; 51,37</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>37,98; 45,12</t>
         </is>
       </c>
     </row>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>64,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>59,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>57,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>74,22%</t>
+          <t>18,55%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35,91%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26,14%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>49,35%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32,29%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>47,23%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>38,38%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,23; 97,32</t>
+          <t>59,64; 69,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,78; 94,97</t>
+          <t>41,77; 52,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,53; 97,66</t>
+          <t>53,63; 64,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,1; 89,79</t>
+          <t>49,03; 63,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,29; 97,01</t>
+          <t>29,69; 39,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,91; 90,53</t>
+          <t>14,87; 23,0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30,98; 41,29</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15,81; 33,26</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>45,55; 53,03</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>28,78; 35,87</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>43,49; 51,01</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>27,79; 44,83</t>
         </is>
       </c>
     </row>
@@ -921,32 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>42,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>88,73%</t>
+          <t>57,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>60,52%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>80,62%</t>
+          <t>21,66%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,14%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30,19%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>39,21%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28,97%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,26%</t>
         </is>
       </c>
     </row>
@@ -959,39 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>93,05; 100,0</t>
+          <t>35,83; 49,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,06; 96,01</t>
+          <t>50,66; 64,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95,34; 100</t>
+          <t>34,0; 48,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,09; 80,56</t>
+          <t>13,21; 22,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,58; 100,0</t>
+          <t>13,16; 24,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,15; 88,22</t>
+          <t>15,72; 27,87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12,29; 22,56</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 6,85</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>25,81; 34,58</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>34,45; 43,83</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24,8; 33,34</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,81; 13,08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>70,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>65,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>70,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>61,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>39,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>29,64%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37,51%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37,51%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>54,69%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>47,06%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>53,64%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>49,68%</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>96,81; 100,0</t>
+          <t>64,75; 75,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,32; 97,32</t>
+          <t>58,86; 71,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,86; 100,0</t>
+          <t>64,58; 75,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,19; 96,23</t>
+          <t>55,71; 66,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,68; 99,64</t>
+          <t>33,25; 44,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>89,98; 95,91</t>
+          <t>24,63; 35,6</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32,45; 43,45</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>32,73; 42,49</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>50,47; 58,78</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>42,43; 51,76</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>49,25; 57,84</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>45,91; 53,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>45,08%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>57,01%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>57,57%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>49,62%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>84,79%</t>
+          <t>27,26%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>36,41%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>47,51%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>32,14%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>41,53%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>46,65%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>48,4%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,54; 100,0</t>
+          <t>41,25; 49,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>80,4; 89,36</t>
+          <t>52,74; 61,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>95,36; 98,93</t>
+          <t>53,19; 61,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>70,81; 94,69</t>
+          <t>45,0; 54,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,82; 99,54</t>
+          <t>16,88; 23,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,57; 92,66</t>
+          <t>23,9; 30,84</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32,74; 40,37</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29,66; 72,81</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29,58; 34,98</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>38,7; 44,06</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>43,77; 49,49</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>38,81; 67,34</t>
         </is>
       </c>
     </row>
@@ -1161,32 +1637,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>63,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>43,49%</t>
+          <t>54,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>56,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>30,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>14,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>44,74%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>37,99%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>42,54%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>22,99%</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>97,38; 99,53</t>
+          <t>60,0; 66,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,0; 71,9</t>
+          <t>50,76; 58,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>94,01; 98,72</t>
+          <t>52,79; 59,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,5; 47,52</t>
+          <t>12,56; 41,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>96,84; 99,08</t>
+          <t>24,26; 30,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,59; 60,32</t>
+          <t>19,64; 25,83</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>26,89; 33,44</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11,99; 16,63</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>42,24; 47,2</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>35,45; 40,67</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>39,77; 45,02</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>13,56; 27,57</t>
         </is>
       </c>
     </row>
@@ -1241,32 +1777,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>54,94%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>56,12%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>70,4%</t>
+          <t>45,77%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>72,79%</t>
+          <t>25,67%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>30,73%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>28,15%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>39,44%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>40,42%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>43,54%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>36,71%</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>98,12; 99,19</t>
+          <t>53,24; 56,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>50,42; 84,7</t>
+          <t>54,36; 58,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>95,93; 98,11</t>
+          <t>55,41; 58,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>61,7; 81,21</t>
+          <t>36,17; 49,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>97,62; 98,55</t>
+          <t>23,05; 25,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>56,85; 79,54</t>
+          <t>24,28; 27,35</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>29,24; 32,44</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>23,31; 40,2</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>38,24; 40,67</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>39,29; 41,71</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>42,34; 44,85</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>33,43; 42,68</t>
         </is>
       </c>
     </row>
@@ -1318,19 +1914,2063 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumió bebidas alcohólicas en las últimas dos semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>138109</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>165746</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>172040</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>179889</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>72488</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>96413</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>98180</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>90683</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>210597</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>262160</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>270220</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>270572</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>120286; 154506</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>148137; 183314</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>154907; 190524</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>155510; 200447</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>60437; 89498</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>79830; 114354</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>82407; 113838</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>78078; 104322</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>191022; 235404</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>237080; 287396</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>248703; 296138</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>244645; 295263</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>205718</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>274259</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>253531</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>255636</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>57701</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>121138</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>92615</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>116970</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>263419</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>395397</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>346146</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>372606</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>183045; 227458</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>251623; 296807</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>232954; 278100</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>225502; 286146</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>44412; 72130</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>102410; 140680</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>75844; 110781</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>98938; 134307</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>236806; 296457</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>364679; 431741</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>317433; 379421</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>333903; 408375</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>186342</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>175153</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>183455</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>185186</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>83148</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>107780</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>114659</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>89812</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>269491</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>282933</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>298115</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>274998</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>169710; 203285</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>157952; 194437</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>166696; 197895</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>167478; 202827</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>68842; 100773</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>91089; 125822</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>98201; 130898</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>75562; 104240</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>244029; 296769</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>259255; 309958</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>271790; 321734</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>252465; 299942</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>230244</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>168327</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>213033</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>178179</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>128153</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>71327</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>135884</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>124346</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>358397</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>239655</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>348916</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>302524</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>211563; 245862</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>149466; 187416</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>193291; 230969</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>153232; 199491</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>110271; 146562</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>57151; 88396</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>117226; 156228</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>75233; 158243</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>330817; 385091</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>213616; 266223</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>321281; 376907</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>219065; 353406</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>84422</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>121921</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>85956</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>31146</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>37778</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>47566</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>37474</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8583</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>122199</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>169486</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>123430</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>39729</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>70976; 98311</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>107708; 136129</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>70563; 100394</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>23609; 41089</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27205; 51052</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>34512; 61192</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26861; 49320</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5223; 14285</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>104477; 139957</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>148887; 189427</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>105687; 142056</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>30270; 50688</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>190326</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>172492</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>182352</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>164637</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>107666</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>82092</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>101711</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>96420</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>297992</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>254583</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>284063</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>261057</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>174037; 203713</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>155391; 188296</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>166864; 196145</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>149548; 178127</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>91800; 124154</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>68207; 98574</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>87998; 117812</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>84145; 109222</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>274997; 320302</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>229498; 280009</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>260816; 306271</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>241261; 281916</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>272730</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>360237</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>368902</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>308093</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>125398</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>186721</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>248952</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>401553</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>398127</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>546958</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>617855</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>709646</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>249551; 298074</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>333272; 385851</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>340790; 394444</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>279374; 338475</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>106990; 146155</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>163755; 211308</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>223846; 276023</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>250686; 615416</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>366353; 433269</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>509700; 580233</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>579743; 655529</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>568999; 987241</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>468204</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>399692</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>418737</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>277537</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>211524</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>181867</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>242511</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>99825</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>679728</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>581559</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>661249</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>377362</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>443478; 494736</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>371199; 426578</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>393760; 446059</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>116669; 388504</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>189306; 237818</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>156989; 206517</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>217355; 270353</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>85480; 118547</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>641765; 717124</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>542688; 622570</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>618109; 699833</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>222597; 452552</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1745</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1730</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1588</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2550</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2552</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2803</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2794</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1776095</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1837828</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1878006</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1580302</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>823855</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>894904</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1071986</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1028192</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>2599950</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>2732732</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2949993</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2608494</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1721081; 1830050</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1779918; 1902363</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1821769; 1933711</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1248887; 1719386</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>774438; 871859</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>846381; 953364</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1019800; 1131476</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>851493; 1468125</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>2521204; 2681089</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>2656385; 2820098</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2868467; 3039082</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2375497; 3032422</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>